--- a/main/experiment/results_summary_excel/housing_results_summary2.xlsx
+++ b/main/experiment/results_summary_excel/housing_results_summary2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\workspace-VisualStudio\AG_IA_2324\main\experiment\results_summary_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2028F7C1-B0BD-422B-9E41-9049290B9C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123930AE-15A6-4695-89E8-B81363A53B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-615" yWindow="1635" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4335" yWindow="4095" windowWidth="28800" windowHeight="13845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7109,19 +7109,19 @@
   <dimension ref="A1:I961"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="A1:I1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="3"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
